--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Epo-Epor.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Epo-Epor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Epo</t>
   </si>
   <si>
     <t>Epor</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.05176466666666666</v>
+      </c>
+      <c r="H2">
+        <v>0.155294</v>
+      </c>
+      <c r="I2">
+        <v>0.08753647729008611</v>
+      </c>
+      <c r="J2">
+        <v>0.08753647729008612</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.419201</v>
-      </c>
-      <c r="H2">
-        <v>1.257603</v>
-      </c>
-      <c r="I2">
-        <v>0.8650221929663464</v>
-      </c>
-      <c r="J2">
-        <v>0.8650221929663463</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.054790666666667</v>
+        <v>1.734215333333333</v>
       </c>
       <c r="N2">
-        <v>3.164372</v>
+        <v>5.202646</v>
       </c>
       <c r="O2">
-        <v>0.5652431679977079</v>
+        <v>0.5798378349702449</v>
       </c>
       <c r="P2">
-        <v>0.5652431679977078</v>
+        <v>0.579837834970245</v>
       </c>
       <c r="Q2">
-        <v>0.4421693022573333</v>
+        <v>0.0897710786582222</v>
       </c>
       <c r="R2">
-        <v>3.979523720316</v>
+        <v>0.8079397079239998</v>
       </c>
       <c r="S2">
-        <v>0.4889478847406222</v>
+        <v>0.05075696147280554</v>
       </c>
       <c r="T2">
-        <v>0.4889478847406221</v>
+        <v>0.05075696147280555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.419201</v>
+        <v>0.05176466666666666</v>
       </c>
       <c r="H3">
-        <v>1.257603</v>
+        <v>0.155294</v>
       </c>
       <c r="I3">
-        <v>0.8650221929663464</v>
+        <v>0.08753647729008611</v>
       </c>
       <c r="J3">
-        <v>0.8650221929663463</v>
+        <v>0.08753647729008612</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.618846</v>
+        <v>1.027686</v>
       </c>
       <c r="N3">
-        <v>1.856538</v>
+        <v>3.083058</v>
       </c>
       <c r="O3">
-        <v>0.3316283359314672</v>
+        <v>0.3436085553019932</v>
       </c>
       <c r="P3">
-        <v>0.3316283359314671</v>
+        <v>0.3436085553019932</v>
       </c>
       <c r="Q3">
-        <v>0.259420862046</v>
+        <v>0.053197823228</v>
       </c>
       <c r="R3">
-        <v>2.334787758414</v>
+        <v>0.478780409052</v>
       </c>
       <c r="S3">
-        <v>0.2868658703972179</v>
+        <v>0.03007828249787222</v>
       </c>
       <c r="T3">
-        <v>0.2868658703972179</v>
+        <v>0.03007828249787223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.419201</v>
+        <v>0.05176466666666666</v>
       </c>
       <c r="H4">
-        <v>1.257603</v>
+        <v>0.155294</v>
       </c>
       <c r="I4">
-        <v>0.8650221929663464</v>
+        <v>0.08753647729008611</v>
       </c>
       <c r="J4">
-        <v>0.8650221929663463</v>
+        <v>0.08753647729008612</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1924463333333334</v>
+        <v>0.2289613333333334</v>
       </c>
       <c r="N4">
-        <v>0.577339</v>
+        <v>0.6868840000000001</v>
       </c>
       <c r="O4">
-        <v>0.103128496070825</v>
+        <v>0.07655360972776194</v>
       </c>
       <c r="P4">
-        <v>0.103128496070825</v>
+        <v>0.07655360972776196</v>
       </c>
       <c r="Q4">
-        <v>0.08067369537966668</v>
+        <v>0.01185210709955556</v>
       </c>
       <c r="R4">
-        <v>0.726063258417</v>
+        <v>0.106668963896</v>
       </c>
       <c r="S4">
-        <v>0.08920843782850629</v>
+        <v>0.006701233319408349</v>
       </c>
       <c r="T4">
-        <v>0.08920843782850628</v>
+        <v>0.00670123331940835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.065412</v>
+        <v>0.419201</v>
       </c>
       <c r="H5">
-        <v>0.196236</v>
+        <v>1.257603</v>
       </c>
       <c r="I5">
-        <v>0.1349778070336537</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="J5">
-        <v>0.1349778070336536</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.054790666666667</v>
+        <v>1.734215333333333</v>
       </c>
       <c r="N5">
-        <v>3.164372</v>
+        <v>5.202646</v>
       </c>
       <c r="O5">
-        <v>0.5652431679977079</v>
+        <v>0.5798378349702449</v>
       </c>
       <c r="P5">
-        <v>0.5652431679977078</v>
+        <v>0.579837834970245</v>
       </c>
       <c r="Q5">
-        <v>0.068995967088</v>
+        <v>0.7269848019486665</v>
       </c>
       <c r="R5">
-        <v>0.6209637037919999</v>
+        <v>6.542863217538</v>
       </c>
       <c r="S5">
-        <v>0.07629528325708571</v>
+        <v>0.4110403944716775</v>
       </c>
       <c r="T5">
-        <v>0.07629528325708566</v>
+        <v>0.4110403944716775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.065412</v>
+        <v>0.419201</v>
       </c>
       <c r="H6">
-        <v>0.196236</v>
+        <v>1.257603</v>
       </c>
       <c r="I6">
-        <v>0.1349778070336537</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="J6">
-        <v>0.1349778070336536</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.618846</v>
+        <v>1.027686</v>
       </c>
       <c r="N6">
-        <v>1.856538</v>
+        <v>3.083058</v>
       </c>
       <c r="O6">
-        <v>0.3316283359314672</v>
+        <v>0.3436085553019932</v>
       </c>
       <c r="P6">
-        <v>0.3316283359314671</v>
+        <v>0.3436085553019932</v>
       </c>
       <c r="Q6">
-        <v>0.040479954552</v>
+        <v>0.430806998886</v>
       </c>
       <c r="R6">
-        <v>0.364319590968</v>
+        <v>3.877262989974001</v>
       </c>
       <c r="S6">
-        <v>0.04476246553424925</v>
+        <v>0.2435801660345642</v>
       </c>
       <c r="T6">
-        <v>0.04476246553424924</v>
+        <v>0.2435801660345642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.065412</v>
+        <v>0.419201</v>
       </c>
       <c r="H7">
-        <v>0.196236</v>
+        <v>1.257603</v>
       </c>
       <c r="I7">
-        <v>0.1349778070336537</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="J7">
-        <v>0.1349778070336536</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,28 +865,400 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1924463333333334</v>
+        <v>0.2289613333333334</v>
       </c>
       <c r="N7">
-        <v>0.577339</v>
+        <v>0.6868840000000001</v>
       </c>
       <c r="O7">
-        <v>0.103128496070825</v>
+        <v>0.07655360972776194</v>
       </c>
       <c r="P7">
-        <v>0.103128496070825</v>
+        <v>0.07655360972776196</v>
       </c>
       <c r="Q7">
-        <v>0.012588299556</v>
+        <v>0.09598081989466667</v>
       </c>
       <c r="R7">
-        <v>0.113294696004</v>
+        <v>0.8638273790520001</v>
       </c>
       <c r="S7">
-        <v>0.01392005824231873</v>
+        <v>0.05426797639437389</v>
       </c>
       <c r="T7">
-        <v>0.01392005824231873</v>
+        <v>0.0542679763943739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01374233333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.041227</v>
+      </c>
+      <c r="I8">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="J8">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.734215333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.202646</v>
+      </c>
+      <c r="O8">
+        <v>0.5798378349702449</v>
+      </c>
+      <c r="P8">
+        <v>0.579837834970245</v>
+      </c>
+      <c r="Q8">
+        <v>0.02383216518244444</v>
+      </c>
+      <c r="R8">
+        <v>0.214489486642</v>
+      </c>
+      <c r="S8">
+        <v>0.01347481068579182</v>
+      </c>
+      <c r="T8">
+        <v>0.01347481068579182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01374233333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.041227</v>
+      </c>
+      <c r="I9">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="J9">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.027686</v>
+      </c>
+      <c r="N9">
+        <v>3.083058</v>
+      </c>
+      <c r="O9">
+        <v>0.3436085553019932</v>
+      </c>
+      <c r="P9">
+        <v>0.3436085553019932</v>
+      </c>
+      <c r="Q9">
+        <v>0.014122803574</v>
+      </c>
+      <c r="R9">
+        <v>0.127105232166</v>
+      </c>
+      <c r="S9">
+        <v>0.007985095061881196</v>
+      </c>
+      <c r="T9">
+        <v>0.007985095061881197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01374233333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.041227</v>
+      </c>
+      <c r="I10">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="J10">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2289613333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.6868840000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.07655360972776194</v>
+      </c>
+      <c r="P10">
+        <v>0.07655360972776196</v>
+      </c>
+      <c r="Q10">
+        <v>0.003146462963111111</v>
+      </c>
+      <c r="R10">
+        <v>0.028318166668</v>
+      </c>
+      <c r="S10">
+        <v>0.001779023954945124</v>
+      </c>
+      <c r="T10">
+        <v>0.001779023954945124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1066416666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.319925</v>
+      </c>
+      <c r="I11">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="J11">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.734215333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.202646</v>
+      </c>
+      <c r="O11">
+        <v>0.5798378349702449</v>
+      </c>
+      <c r="P11">
+        <v>0.579837834970245</v>
+      </c>
+      <c r="Q11">
+        <v>0.1849396135055556</v>
+      </c>
+      <c r="R11">
+        <v>1.66445652155</v>
+      </c>
+      <c r="S11">
+        <v>0.1045656683399701</v>
+      </c>
+      <c r="T11">
+        <v>0.1045656683399701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1066416666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.319925</v>
+      </c>
+      <c r="I12">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="J12">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.027686</v>
+      </c>
+      <c r="N12">
+        <v>3.083058</v>
+      </c>
+      <c r="O12">
+        <v>0.3436085553019932</v>
+      </c>
+      <c r="P12">
+        <v>0.3436085553019932</v>
+      </c>
+      <c r="Q12">
+        <v>0.10959414785</v>
+      </c>
+      <c r="R12">
+        <v>0.9863473306500001</v>
+      </c>
+      <c r="S12">
+        <v>0.06196501170767559</v>
+      </c>
+      <c r="T12">
+        <v>0.06196501170767561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1066416666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.319925</v>
+      </c>
+      <c r="I13">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="J13">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2289613333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.6868840000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.07655360972776194</v>
+      </c>
+      <c r="P13">
+        <v>0.07655360972776196</v>
+      </c>
+      <c r="Q13">
+        <v>0.02441681818888889</v>
+      </c>
+      <c r="R13">
+        <v>0.2197513637</v>
+      </c>
+      <c r="S13">
+        <v>0.01380537605903458</v>
+      </c>
+      <c r="T13">
+        <v>0.01380537605903458</v>
       </c>
     </row>
   </sheetData>
